--- a/data/agric_output_codebook_v2.xlsx
+++ b/data/agric_output_codebook_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\animal-husbandry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F088AEA-6643-4AA2-B696-CB27983A9F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F4C29-6688-4475-B4C0-19DEF6A414A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4058E2B8-7C5F-4AE6-A917-040610DA7125}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>col_num</t>
   </si>
@@ -83,15 +83,6 @@
     <t>Farms owned: 200 and above</t>
   </si>
   <si>
-    <t>Farms rented: 4-40 acres</t>
-  </si>
-  <si>
-    <t>Farms rented: 40-200 acres</t>
-  </si>
-  <si>
-    <t>Farms rented: 200 and above</t>
-  </si>
-  <si>
     <t>Acres for autumn grain</t>
   </si>
   <si>
@@ -212,18 +203,6 @@
     <t>Harvest for other cabbage vegetables</t>
   </si>
   <si>
-    <t>Harvest of flax and hemp</t>
-  </si>
-  <si>
-    <t>Harvest of flax and hemp shavings?</t>
-  </si>
-  <si>
-    <t>Harvest of grass and other fodder</t>
-  </si>
-  <si>
-    <t>Harvest of hay</t>
-  </si>
-  <si>
     <t>Harvest for canola</t>
   </si>
   <si>
@@ -255,6 +234,54 @@
   </si>
   <si>
     <t>Geese and chickens</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>acreage</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>Harvest for flax and hemp</t>
+  </si>
+  <si>
+    <t>Harvest for flax and hemp shavings?</t>
+  </si>
+  <si>
+    <t>Harvest for grass and other fodder</t>
+  </si>
+  <si>
+    <t>Harvest for hay</t>
+  </si>
+  <si>
+    <t>Farms used: 4-40 acres</t>
+  </si>
+  <si>
+    <t>Farms used: 40-200 acres</t>
+  </si>
+  <si>
+    <t>Farms used: 200 and above</t>
+  </si>
+  <si>
+    <t>Farms used: 4 acres and below</t>
   </si>
 </sst>
 </file>
@@ -606,600 +633,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB71F9-2EEC-4592-9B92-32572A876BDD}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
